--- a/結合テスト仕様書/結合テスト仕様書.xlsx
+++ b/結合テスト仕様書/結合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B10DFA-F115-46DB-8730-CECE31A63F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA16F4D-4B16-4176-B172-23A99AF0A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>結合テスト項目</t>
     <rPh sb="0" eb="2">
@@ -1100,6 +1100,132 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク編集失敗画面に遷移すること</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク編集画面で何も変更せずに変更するボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者ツールを用いてカテゴリ分類をプルダウンの項目以外に変更する</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者ツールを用いて期限を今日よりも前の日付に変更する</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者ツールを用いて担当者をデータベースに登録されていないユーザーに変更する</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者ツールを用いてステータス情報をプルダウンの項目以外に変更する</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1701,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B97453-0681-4900-B07F-7B6873A2EE5D}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -2354,14 +2480,14 @@
       <c r="AD17" s="20"/>
     </row>
     <row r="18" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A18" s="29">
+      <c r="A18" s="27">
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="18" t="s">
         <v>35</v>
       </c>
@@ -2394,16 +2520,12 @@
       <c r="AD18" s="20"/>
     </row>
     <row r="19" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A19" s="27">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="21" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -2412,7 +2534,7 @@
       <c r="J19" s="22"/>
       <c r="K19" s="23"/>
       <c r="L19" s="18" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -2434,21 +2556,21 @@
       <c r="AD19" s="20"/>
     </row>
     <row r="20" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="18" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -2470,33 +2592,29 @@
       <c r="AD20" s="20"/>
     </row>
     <row r="21" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A21" s="29">
-        <v>11</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="20"/>
       <c r="T21" s="11"/>
       <c r="U21" s="13"/>
       <c r="V21" s="11"/>
@@ -2510,16 +2628,12 @@
       <c r="AD21" s="20"/>
     </row>
     <row r="22" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A22" s="27">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="21" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -2528,7 +2642,7 @@
       <c r="J22" s="22"/>
       <c r="K22" s="23"/>
       <c r="L22" s="18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -2554,17 +2668,17 @@
       <c r="B23" s="8"/>
       <c r="C23" s="26"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
+      <c r="E23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -2586,16 +2700,16 @@
       <c r="AD23" s="20"/>
     </row>
     <row r="24" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A24" s="5">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="27">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -2604,7 +2718,7 @@
       <c r="J24" s="22"/>
       <c r="K24" s="23"/>
       <c r="L24" s="18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
@@ -2626,16 +2740,12 @@
       <c r="AD24" s="20"/>
     </row>
     <row r="25" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A25" s="27">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="18" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -2644,7 +2754,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
       <c r="L25" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
@@ -2666,12 +2776,16 @@
       <c r="AD25" s="20"/>
     </row>
     <row r="26" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="29">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="18" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -2679,16 +2793,16 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="20"/>
+      <c r="L26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
       <c r="T26" s="11"/>
       <c r="U26" s="13"/>
       <c r="V26" s="11"/>
@@ -2702,25 +2816,25 @@
       <c r="AD26" s="20"/>
     </row>
     <row r="27" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A27" s="5">
-        <v>15</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="A27" s="27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
@@ -2742,18 +2856,22 @@
       <c r="AD27" s="20"/>
     </row>
     <row r="28" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="18"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
@@ -2774,18 +2892,26 @@
       <c r="AD28" s="20"/>
     </row>
     <row r="29" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="18"/>
+      <c r="E29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
@@ -2806,18 +2932,26 @@
       <c r="AD29" s="20"/>
     </row>
     <row r="30" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="18"/>
+      <c r="A30" s="27">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
-      <c r="L30" s="18"/>
+      <c r="L30" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -2838,18 +2972,22 @@
       <c r="AD30" s="20"/>
     </row>
     <row r="31" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
-      <c r="L31" s="18"/>
+      <c r="L31" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
@@ -2870,18 +3008,26 @@
       <c r="AD31" s="20"/>
     </row>
     <row r="32" spans="1:30" ht="37.5" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="5">
+        <v>15</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="18"/>
+      <c r="L32" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
@@ -2900,6 +3046,166 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="20"/>
+    </row>
+    <row r="33" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="20"/>
+    </row>
+    <row r="34" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="20"/>
+    </row>
+    <row r="35" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="20"/>
+    </row>
+    <row r="36" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="20"/>
+    </row>
+    <row r="37" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AD3" xr:uid="{03B97453-0681-4900-B07F-7B6873A2EE5D}">
@@ -2927,26 +3233,43 @@
     <filterColumn colId="27" showButton="0"/>
     <filterColumn colId="28" showButton="0"/>
   </autoFilter>
-  <mergeCells count="184">
+  <mergeCells count="210">
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AD22"/>
     <mergeCell ref="X10:AD10"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B9:D13"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="E18:K18"/>
     <mergeCell ref="E12:K12"/>
     <mergeCell ref="L12:S12"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="L13:S13"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="L28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
     <mergeCell ref="E11:K11"/>
     <mergeCell ref="L11:S11"/>
     <mergeCell ref="T11:U11"/>
@@ -2957,40 +3280,18 @@
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="L26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="L25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="L28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="L32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="B18:D23"/>
     <mergeCell ref="E30:K30"/>
     <mergeCell ref="L30:S30"/>
     <mergeCell ref="T30:U30"/>
@@ -3002,54 +3303,85 @@
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="L31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="L32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:AD27"/>
     <mergeCell ref="L20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:AD35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="L26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="L37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:AD25"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:AD23"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="L17:S17"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AD18"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="L16:S16"/>
     <mergeCell ref="T16:U16"/>

--- a/結合テスト仕様書/結合テスト仕様書.xlsx
+++ b/結合テスト仕様書/結合テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B4146-0D2B-494C-9600-29D428A9E447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E6D03-688E-48EF-8DD1-41647A1F57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト仕様書" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="エビデンス (ログアウト画面)" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト仕様書!$A$3:$AD$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テスト仕様書!$A$3:$AE$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>結合テスト項目</t>
     <rPh sb="0" eb="2">
@@ -83,16 +83,6 @@
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目番号</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1519,10 +1509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインに失敗する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメントの投稿に失敗する</t>
     <rPh sb="5" eb="7">
       <t>トウコウ</t>
@@ -1665,6 +1651,32 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大項目番号</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小項目番号</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1673,7 +1685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1695,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1703,7 +1723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2101,11 +2121,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2294,6 +2334,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2318,13 +2373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>73253</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>5783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2355,10 +2410,429 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78016</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>29596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EE2699-A9A2-CEC3-90A2-844FD81FDD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="7715250"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39916</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>229621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C14D2B6-0943-0675-EEE1-BEC9F42002A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="15773400"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>58966</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>20071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9B98C0-7244-C168-D68F-914728DEC0E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="23183850"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68491</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>58171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5859947-E735-4A8E-62AC-C32FA0EAD3B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="32508825"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>58966</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>20071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62786B0C-3093-FD26-A7DD-0F2E96A5F838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="40328850"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39916</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>210571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410D301F-D42B-F09E-C787-E7E47D98F46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="276225"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30391</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE734349-BFE8-8B7D-ECA7-DABFEDD4B5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="7686675"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20866</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>220096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAE8EF9-DDA7-4A5D-A9C9-567C7C93B99B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="285750"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>39916</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>10546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD50E29-F936-0B68-B754-8F646B6638C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="7696200"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2629,2494 +3103,2658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B97453-0681-4900-B07F-7B6873A2EE5D}">
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="20" max="23" width="9" style="1"/>
-    <col min="24" max="30" width="9" style="4"/>
+    <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9" style="1"/>
+    <col min="25" max="31" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="58"/>
       <c r="G1" s="58"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="60"/>
-    </row>
-    <row r="2" spans="1:30" ht="19.5" thickBot="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="59"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:31" ht="19.5" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="61">
+      <c r="J2" s="61">
         <v>45645</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="62"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="M2" s="59"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
-      <c r="E3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="55"/>
+      <c r="E3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="54" t="s">
+        <v>9</v>
+      </c>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
       <c r="P3" s="55"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="54" t="s">
+      <c r="S3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="56"/>
+      <c r="W3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="55"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="54" t="s">
+        <v>14</v>
+      </c>
       <c r="Z3" s="55"/>
       <c r="AA3" s="55"/>
       <c r="AB3" s="55"/>
       <c r="AC3" s="55"/>
-      <c r="AD3" s="57"/>
-    </row>
-    <row r="4" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="57"/>
+    </row>
+    <row r="4" spans="1:31" ht="37.5" customHeight="1">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="36"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="13"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="53">
+      <c r="S4" s="13"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="53">
         <v>45645</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
-      <c r="AD4" s="14"/>
-    </row>
-    <row r="5" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="14"/>
+    </row>
+    <row r="5" spans="1:31" ht="37.5" customHeight="1">
       <c r="A5" s="39">
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="36"/>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="13"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
-      <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="14"/>
+    </row>
+    <row r="6" spans="1:31" ht="37.5" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="42"/>
       <c r="C6" s="63"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>78</v>
+      </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
-      <c r="AD6" s="14"/>
-    </row>
-    <row r="7" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="14"/>
+    </row>
+    <row r="7" spans="1:31" ht="37.5" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="42"/>
       <c r="C7" s="63"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="36"/>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="12"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="14"/>
-    </row>
-    <row r="8" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="14"/>
+    </row>
+    <row r="8" spans="1:31" ht="37.5" customHeight="1">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="36"/>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="13"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="12"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
-      <c r="AD8" s="14"/>
-    </row>
-    <row r="9" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="14"/>
+    </row>
+    <row r="9" spans="1:31" ht="37.5" customHeight="1">
       <c r="A9" s="39">
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
-      <c r="AD9" s="14"/>
-    </row>
-    <row r="10" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14"/>
+    </row>
+    <row r="10" spans="1:31" ht="37.5" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="63"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="E10" s="7">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="22"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="31"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="27"/>
       <c r="Z10" s="31"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="31"/>
-      <c r="AD10" s="32"/>
-    </row>
-    <row r="11" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="32"/>
+    </row>
+    <row r="11" spans="1:31" ht="37.5" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="42"/>
       <c r="C11" s="63"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="33"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="29"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
-      <c r="AD11" s="34"/>
-    </row>
-    <row r="12" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="34"/>
+    </row>
+    <row r="12" spans="1:31" ht="37.5" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="63"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="22"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="31"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="27"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="31"/>
       <c r="AC12" s="31"/>
-      <c r="AD12" s="32"/>
-    </row>
-    <row r="13" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="32"/>
+    </row>
+    <row r="13" spans="1:31" ht="37.5" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="63"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="33"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="29"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="34"/>
-    </row>
-    <row r="14" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="34"/>
+    </row>
+    <row r="14" spans="1:31" ht="37.5" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="63"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="16"/>
+      <c r="E14" s="7">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="22"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="31"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="27"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="31"/>
-      <c r="AD14" s="32"/>
-    </row>
-    <row r="15" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="32"/>
+    </row>
+    <row r="15" spans="1:31" ht="37.5" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="42"/>
       <c r="C15" s="63"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="7">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="33"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="29"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
-      <c r="AD15" s="34"/>
-    </row>
-    <row r="16" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="34"/>
+    </row>
+    <row r="16" spans="1:31" ht="37.5" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="E16" s="7">
+        <v>13</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="22"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="31"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="27"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="32"/>
-    </row>
-    <row r="17" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="32"/>
+    </row>
+    <row r="17" spans="1:31" ht="37.5" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="7">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="33"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="29"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
       <c r="AC17" s="33"/>
-      <c r="AD17" s="34"/>
-    </row>
-    <row r="18" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="34"/>
+    </row>
+    <row r="18" spans="1:31" ht="37.5" customHeight="1">
       <c r="A18" s="39">
         <v>5</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="13"/>
+      <c r="E18" s="7">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="12"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
-      <c r="AD18" s="14"/>
-    </row>
-    <row r="19" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+    </row>
+    <row r="19" spans="1:31" ht="37.5" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="42"/>
       <c r="C19" s="63"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="36"/>
+      <c r="E19" s="7">
+        <v>16</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="13"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="12"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
-      <c r="AD19" s="14"/>
-    </row>
-    <row r="20" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="14"/>
+    </row>
+    <row r="20" spans="1:31" ht="37.5" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="42"/>
       <c r="C20" s="63"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="36"/>
+      <c r="E20" s="7">
+        <v>17</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>99</v>
+      </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="13"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="12"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
-      <c r="AD20" s="14"/>
-    </row>
-    <row r="21" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="14"/>
+    </row>
+    <row r="21" spans="1:31" ht="37.5" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="42"/>
       <c r="C21" s="63"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="E21" s="7">
+        <v>18</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>100</v>
+      </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" s="13"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="12"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
-      <c r="AD21" s="14"/>
-    </row>
-    <row r="22" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="14"/>
+    </row>
+    <row r="22" spans="1:31" ht="37.5" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="36"/>
+      <c r="E22" s="7">
+        <v>19</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="13"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="12"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
-      <c r="AD22" s="14"/>
-    </row>
-    <row r="23" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="14"/>
+    </row>
+    <row r="23" spans="1:31" ht="37.5" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="36"/>
+      <c r="E23" s="7">
+        <v>20</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" s="13"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="12"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
-      <c r="AD23" s="14"/>
-    </row>
-    <row r="24" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="14"/>
+    </row>
+    <row r="24" spans="1:31" ht="37.5" customHeight="1">
       <c r="A24" s="40"/>
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="36"/>
+      <c r="E24" s="7">
+        <v>21</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="13"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="12"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
-      <c r="AD24" s="14"/>
-    </row>
-    <row r="25" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="14"/>
+    </row>
+    <row r="25" spans="1:31" ht="37.5" customHeight="1">
       <c r="A25" s="40"/>
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="36"/>
+      <c r="E25" s="7">
+        <v>22</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>66</v>
+      </c>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="13"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="12"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
-      <c r="AD25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="14"/>
+    </row>
+    <row r="26" spans="1:31" ht="37.5" customHeight="1">
       <c r="A26" s="40"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="E26" s="7">
+        <v>23</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="13"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="12"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
-      <c r="AD26" s="14"/>
-    </row>
-    <row r="27" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="14"/>
+    </row>
+    <row r="27" spans="1:31" ht="37.5" customHeight="1">
       <c r="A27" s="40"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="36"/>
+      <c r="E27" s="7">
+        <v>24</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="13"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="12"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
-      <c r="AD27" s="14"/>
-    </row>
-    <row r="28" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="14"/>
+    </row>
+    <row r="28" spans="1:31" ht="37.5" customHeight="1">
       <c r="A28" s="41"/>
       <c r="B28" s="29"/>
       <c r="C28" s="33"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="36"/>
+      <c r="E28" s="7">
+        <v>25</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>88</v>
+      </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="13"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="12"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
-      <c r="AD28" s="14"/>
-    </row>
-    <row r="29" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="14"/>
+    </row>
+    <row r="29" spans="1:31" ht="37.5" customHeight="1">
       <c r="A29" s="7">
         <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="45"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="13"/>
+      <c r="E29" s="7">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="12"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
-      <c r="AD29" s="14"/>
-    </row>
-    <row r="30" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="14"/>
+    </row>
+    <row r="30" spans="1:31" ht="37.5" customHeight="1">
       <c r="A30" s="7">
         <v>7</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="13"/>
+      <c r="E30" s="7">
+        <v>27</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="12"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
-      <c r="AD30" s="14"/>
-    </row>
-    <row r="31" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="14"/>
+    </row>
+    <row r="31" spans="1:31" ht="37.5" customHeight="1">
       <c r="A31" s="39">
         <v>8</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="13"/>
+      <c r="E31" s="7">
+        <v>28</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="12"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
-      <c r="AD31" s="14"/>
-    </row>
-    <row r="32" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="14"/>
+    </row>
+    <row r="32" spans="1:31" ht="37.5" customHeight="1">
       <c r="A32" s="40"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="16"/>
+      <c r="E32" s="7">
+        <v>29</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" s="22"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="13"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="12"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
-      <c r="AD32" s="14"/>
-    </row>
-    <row r="33" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="14"/>
+    </row>
+    <row r="33" spans="1:31" ht="37.5" customHeight="1">
       <c r="A33" s="41"/>
       <c r="B33" s="29"/>
       <c r="C33" s="33"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
+      <c r="E33" s="7">
+        <v>30</v>
+      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="13"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="12"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
-      <c r="AD33" s="14"/>
-    </row>
-    <row r="34" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="14"/>
+    </row>
+    <row r="34" spans="1:31" ht="37.5" customHeight="1">
       <c r="A34" s="39">
         <v>9</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="7">
         <v>31</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="36"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="13"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="12"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
-      <c r="AD34" s="14"/>
-    </row>
-    <row r="35" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="14"/>
+    </row>
+    <row r="35" spans="1:31" ht="37.5" customHeight="1">
       <c r="A35" s="40"/>
       <c r="B35" s="42"/>
       <c r="C35" s="63"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="36"/>
+      <c r="E35" s="7">
+        <v>32</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>85</v>
+      </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="13"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="12"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
-      <c r="AD35" s="14"/>
-    </row>
-    <row r="36" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="14"/>
+    </row>
+    <row r="36" spans="1:31" ht="37.5" customHeight="1">
       <c r="A36" s="40"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="36"/>
+      <c r="E36" s="7">
+        <v>33</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="13"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="12"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
-      <c r="AD36" s="14"/>
-    </row>
-    <row r="37" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="14"/>
+    </row>
+    <row r="37" spans="1:31" ht="37.5" customHeight="1">
       <c r="A37" s="40"/>
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="36"/>
+      <c r="E37" s="7">
+        <v>34</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>89</v>
+      </c>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="13"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="12"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
-      <c r="AD37" s="14"/>
-    </row>
-    <row r="38" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="14"/>
+    </row>
+    <row r="38" spans="1:31" ht="37.5" customHeight="1">
       <c r="A38" s="40"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="36"/>
+      <c r="E38" s="7">
+        <v>35</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38" s="13"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="12"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="13"/>
-      <c r="AD38" s="14"/>
-    </row>
-    <row r="39" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="14"/>
+    </row>
+    <row r="39" spans="1:31" ht="37.5" customHeight="1">
       <c r="A39" s="40"/>
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="36"/>
+      <c r="E39" s="7">
+        <v>36</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>91</v>
+      </c>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="13"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="13"/>
-      <c r="AD39" s="14"/>
-    </row>
-    <row r="40" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="14"/>
+    </row>
+    <row r="40" spans="1:31" ht="37.5" customHeight="1">
       <c r="A40" s="40"/>
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="36"/>
+      <c r="E40" s="7">
+        <v>37</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="13"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="12"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="13"/>
-      <c r="AD40" s="14"/>
-    </row>
-    <row r="41" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="14"/>
+    </row>
+    <row r="41" spans="1:31" ht="37.5" customHeight="1">
       <c r="A41" s="40"/>
       <c r="B41" s="42"/>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="36"/>
+      <c r="E41" s="7">
+        <v>38</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="13"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="12"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
-      <c r="AD41" s="14"/>
-    </row>
-    <row r="42" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="14"/>
+    </row>
+    <row r="42" spans="1:31" ht="37.5" customHeight="1">
       <c r="A42" s="40"/>
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="36"/>
+      <c r="E42" s="7">
+        <v>39</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="13"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
-      <c r="AD42" s="14"/>
-    </row>
-    <row r="43" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="14"/>
+    </row>
+    <row r="43" spans="1:31" ht="37.5" customHeight="1">
       <c r="A43" s="41"/>
       <c r="B43" s="29"/>
       <c r="C43" s="33"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="13"/>
+      <c r="E43" s="7">
+        <v>40</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="12"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
-      <c r="AD43" s="14"/>
-    </row>
-    <row r="44" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="14"/>
+    </row>
+    <row r="44" spans="1:31" ht="37.5" customHeight="1">
       <c r="A44" s="39">
         <v>10</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="36"/>
+      <c r="E44" s="7">
+        <v>41</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M44" s="13"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="12"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
-      <c r="AD44" s="14"/>
-    </row>
-    <row r="45" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="14"/>
+    </row>
+    <row r="45" spans="1:31" ht="37.5" customHeight="1">
       <c r="A45" s="41"/>
       <c r="B45" s="29"/>
       <c r="C45" s="33"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="13"/>
+      <c r="E45" s="7">
+        <v>42</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="12"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
-      <c r="AD45" s="14"/>
-    </row>
-    <row r="46" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="14"/>
+    </row>
+    <row r="46" spans="1:31" ht="37.5" customHeight="1">
       <c r="A46" s="8">
         <v>11</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="13"/>
+      <c r="E46" s="7">
+        <v>43</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" s="36"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="N46" s="36"/>
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="36"/>
       <c r="R46" s="36"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="13"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="12"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
-      <c r="AD46" s="14"/>
-    </row>
-    <row r="47" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="14"/>
+    </row>
+    <row r="47" spans="1:31" ht="37.5" customHeight="1">
       <c r="A47" s="7">
         <v>12</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="36"/>
+      <c r="E47" s="7">
+        <v>44</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M47" s="13"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="12"/>
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
-      <c r="AD47" s="14"/>
-    </row>
-    <row r="48" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="14"/>
+    </row>
+    <row r="48" spans="1:31" ht="37.5" customHeight="1">
       <c r="A48" s="39">
         <v>13</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="36"/>
+      <c r="E48" s="7">
+        <v>45</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M48" s="13"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="12"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="13"/>
-      <c r="AD48" s="14"/>
-    </row>
-    <row r="49" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="14"/>
+    </row>
+    <row r="49" spans="1:31" ht="37.5" customHeight="1">
       <c r="A49" s="41"/>
       <c r="B49" s="29"/>
       <c r="C49" s="33"/>
       <c r="D49" s="30"/>
-      <c r="E49" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="36"/>
+      <c r="E49" s="7">
+        <v>46</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>96</v>
+      </c>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M49" s="13"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="12"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="13"/>
-      <c r="AD49" s="14"/>
-    </row>
-    <row r="50" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="14"/>
+    </row>
+    <row r="50" spans="1:31" ht="37.5" customHeight="1">
       <c r="A50" s="39">
         <v>14</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="36"/>
+      <c r="E50" s="7">
+        <v>47</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M50" s="13"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="12"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="14"/>
-    </row>
-    <row r="51" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="14"/>
+    </row>
+    <row r="51" spans="1:31" ht="37.5" customHeight="1">
       <c r="A51" s="41"/>
       <c r="B51" s="29"/>
       <c r="C51" s="33"/>
       <c r="D51" s="30"/>
-      <c r="E51" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="36"/>
+      <c r="E51" s="7">
+        <v>48</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M51" s="13"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="12"/>
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
-      <c r="AD51" s="14"/>
-    </row>
-    <row r="52" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="14"/>
+    </row>
+    <row r="52" spans="1:31" ht="37.5" customHeight="1">
       <c r="A52" s="39">
         <v>15</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="36"/>
+      <c r="E52" s="7">
+        <v>49</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" s="13"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="12"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
-      <c r="AD52" s="14"/>
-    </row>
-    <row r="53" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="14"/>
+    </row>
+    <row r="53" spans="1:31" ht="37.5" customHeight="1">
       <c r="A53" s="41"/>
       <c r="B53" s="29"/>
       <c r="C53" s="33"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="13"/>
+      <c r="E53" s="7">
+        <v>50</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="12"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
-      <c r="AD53" s="14"/>
-    </row>
-    <row r="54" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="14"/>
+    </row>
+    <row r="54" spans="1:31" ht="37.5" customHeight="1">
       <c r="A54" s="7">
         <v>16</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="13"/>
+      <c r="E54" s="7">
+        <v>51</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="12"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
       <c r="AB54" s="13"/>
       <c r="AC54" s="13"/>
-      <c r="AD54" s="14"/>
-    </row>
-    <row r="55" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="14"/>
+    </row>
+    <row r="55" spans="1:31" ht="37.5" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
       <c r="C55" s="45"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="12"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="12"/>
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
       <c r="AC55" s="13"/>
-      <c r="AD55" s="14"/>
-    </row>
-    <row r="56" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="14"/>
+    </row>
+    <row r="56" spans="1:31" ht="37.5" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="10"/>
       <c r="C56" s="45"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="12"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="12"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
       <c r="AB56" s="13"/>
       <c r="AC56" s="13"/>
-      <c r="AD56" s="14"/>
-    </row>
-    <row r="57" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="14"/>
+    </row>
+    <row r="57" spans="1:31" ht="37.5" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="10"/>
       <c r="C57" s="45"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="12"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="12"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
-      <c r="AD57" s="14"/>
-    </row>
-    <row r="58" spans="1:30" ht="37.5" customHeight="1">
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="14"/>
+    </row>
+    <row r="58" spans="1:31" ht="37.5" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="45"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="12"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="12"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="13"/>
       <c r="AC58" s="13"/>
-      <c r="AD58" s="14"/>
-    </row>
-    <row r="59" spans="1:30" ht="37.5" customHeight="1" thickBot="1">
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="14"/>
+    </row>
+    <row r="59" spans="1:31" ht="37.5" customHeight="1" thickBot="1">
       <c r="A59" s="9"/>
       <c r="B59" s="46"/>
       <c r="C59" s="47"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="49"/>
       <c r="N59" s="50"/>
       <c r="O59" s="50"/>
       <c r="P59" s="50"/>
       <c r="Q59" s="50"/>
       <c r="R59" s="50"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="48"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="48"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="49"/>
       <c r="Z59" s="50"/>
       <c r="AA59" s="50"/>
       <c r="AB59" s="50"/>
       <c r="AC59" s="50"/>
-      <c r="AD59" s="52"/>
+      <c r="AD59" s="50"/>
+      <c r="AE59" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD3" xr:uid="{03B97453-0681-4900-B07F-7B6873A2EE5D}">
+  <autoFilter ref="A3:AE3" xr:uid="{03B97453-0681-4900-B07F-7B6873A2EE5D}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
     <filterColumn colId="17" showButton="0"/>
-    <filterColumn colId="19" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
-    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
     <filterColumn colId="24" showButton="0"/>
     <filterColumn colId="25" showButton="0"/>
     <filterColumn colId="26" showButton="0"/>
     <filterColumn colId="27" showButton="0"/>
     <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
   </autoFilter>
   <mergeCells count="301">
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="E40:K40"/>
-    <mergeCell ref="L40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:AD40"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="L42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:AD42"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:AD35"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="L26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="L12:S13"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V12:W13"/>
-    <mergeCell ref="X12:AD13"/>
-    <mergeCell ref="E14:K15"/>
-    <mergeCell ref="L14:S15"/>
-    <mergeCell ref="T14:U15"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="X14:AD15"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AE19"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:AE37"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="M40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:AE40"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="M42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:AE42"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:AE35"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="M23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AE23"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AE26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AE27"/>
+    <mergeCell ref="M12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:AE13"/>
+    <mergeCell ref="F14:L15"/>
+    <mergeCell ref="M14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:AE15"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AE6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E10:K11"/>
-    <mergeCell ref="L10:S11"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="X10:AD11"/>
+    <mergeCell ref="F10:L11"/>
+    <mergeCell ref="M10:T11"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:AE11"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="A1:C2"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="L7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AE9"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="L8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="L31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:AE34"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:AE31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="L59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:AD59"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="L45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:AD45"/>
-    <mergeCell ref="E48:K48"/>
-    <mergeCell ref="L48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="L49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:AD49"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="M30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AE30"/>
+    <mergeCell ref="M59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:AE59"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:AE45"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:AE48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:AE49"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="B31:D33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B44:D45"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="F43:L43"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="F44:L44"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F18:L18"/>
     <mergeCell ref="B9:D17"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E12:K13"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F12:L13"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F37:L37"/>
     <mergeCell ref="B48:D49"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F20:L20"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="L58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:AD58"/>
+    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="M58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Y58:AE58"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="L46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:AE46"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="L55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:AD55"/>
+    <mergeCell ref="F55:L55"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="Y55:AE55"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="L57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:AD57"/>
+    <mergeCell ref="F57:L57"/>
+    <mergeCell ref="M57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:AE57"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:AD56"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:AD52"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="L47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="L38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:AD38"/>
-    <mergeCell ref="L44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="L43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="F56:L56"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="Y56:AE56"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:AE52"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:AE47"/>
+    <mergeCell ref="M38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:AE38"/>
+    <mergeCell ref="M44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:AE44"/>
+    <mergeCell ref="M43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:AE43"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="L54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:AD54"/>
-    <mergeCell ref="E53:K53"/>
-    <mergeCell ref="L53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:AD53"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:AD51"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="L39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="L50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:AD50"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="M54:T54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:AE54"/>
+    <mergeCell ref="F53:L53"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:AE53"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:AE51"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="M39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AE24"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:AE50"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AE28"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:AE33"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:D51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:D53"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="L28:S28"/>
-    <mergeCell ref="E38:K38"/>
-    <mergeCell ref="E51:K51"/>
-    <mergeCell ref="L51:S51"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:T28"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="M51:T51"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B34:D43"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="L52:S52"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L29:S29"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L37:S37"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="L41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:AD41"/>
-    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="F52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="M34:T34"/>
+    <mergeCell ref="M29:T29"/>
+    <mergeCell ref="M35:T35"/>
+    <mergeCell ref="M37:T37"/>
+    <mergeCell ref="Y39:AE39"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="M41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:AE41"/>
+    <mergeCell ref="Y22:AE22"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B18:D28"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="L25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="E32:K33"/>
-    <mergeCell ref="L32:S33"/>
-    <mergeCell ref="E16:K17"/>
-    <mergeCell ref="L16:S17"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="V16:W17"/>
-    <mergeCell ref="X16:AD17"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="L20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="M36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:AE36"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AE25"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:AE32"/>
+    <mergeCell ref="F32:L33"/>
+    <mergeCell ref="M32:T33"/>
+    <mergeCell ref="F16:L17"/>
+    <mergeCell ref="M16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:AE17"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y29:AE29"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AE18"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AE20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5125,107 +5763,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024956E4-D691-4A8C-8C2F-0D22D8371878}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="58">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B1" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="58"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="64"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6" s="64"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" s="64"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -5297,20 +5945,110 @@
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7">
+    <row r="28" spans="1:4">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+    </row>
+    <row r="67" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A67" s="58">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="11"/>
+      <c r="B67" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="58"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A101" s="58">
+        <v>3</v>
+      </c>
+      <c r="B101" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="58"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+    </row>
+    <row r="135" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A135" s="68">
+        <v>4</v>
+      </c>
+      <c r="B135" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="69"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="69"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="68"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="69"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B34:D34"/>
+  <mergeCells count="9">
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:H136"/>
+    <mergeCell ref="B169:I169"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B67:H68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:H102"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5331,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="11"/>
@@ -5342,6 +6080,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5384,7 +6123,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="11"/>
@@ -5395,5 +6134,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/結合テスト仕様書/結合テスト仕様書.xlsx
+++ b/結合テスト仕様書/結合テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E6D03-688E-48EF-8DD1-41647A1F57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D0387-C21B-4CA8-A028-78680FEA86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト仕様書" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>結合テスト項目</t>
     <rPh sb="0" eb="2">
@@ -1585,10 +1585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー画面を表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開発者ツールを用いてカテゴリー名の文字列のカンマを消して登録する</t>
     <rPh sb="0" eb="3">
       <t>カイハツシャ</t>
@@ -1678,6 +1674,17 @@
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインに成功してメニュー画面に遷移すること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2145,7 +2152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,6 +2356,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2419,14 +2429,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>78016</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:colOff>87541</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>29596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2450,7 +2460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="7715250"/>
+          <a:off x="104775" y="8429625"/>
           <a:ext cx="13012966" cy="7316221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2466,15 +2476,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>39916</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>229621</xdr:rowOff>
+      <xdr:colOff>87541</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>29596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2497,7 +2507,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="15773400"/>
+          <a:off x="104775" y="16525875"/>
           <a:ext cx="13012966" cy="7316221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2514,13 +2524,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>58966</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>20071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2561,13 +2571,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>68491</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>58171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2605,13 +2615,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>58966</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>20071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2653,15 +2663,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>39916</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>210571</xdr:rowOff>
+      <xdr:colOff>58966</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2684,7 +2694,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="276225"/>
+          <a:off x="76200" y="542925"/>
           <a:ext cx="13012966" cy="7316221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2700,14 +2710,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>30391</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>58966</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2731,7 +2741,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="7686675"/>
+          <a:off x="76200" y="7924800"/>
           <a:ext cx="13012966" cy="7316221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2796,15 +2806,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>39916</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>10546</xdr:rowOff>
+      <xdr:colOff>58966</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>20071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2827,7 +2837,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="7696200"/>
+          <a:off x="76200" y="8181975"/>
           <a:ext cx="13012966" cy="7316221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3105,11 +3115,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B97453-0681-4900-B07F-7B6873A2EE5D}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7:T7"/>
+      <selection pane="bottomRight" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3172,7 +3182,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>7</v>
@@ -3180,7 +3190,7 @@
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
       <c r="E3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>8</v>
@@ -3297,10 +3307,12 @@
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="37"/>
-      <c r="U5" s="10"/>
+      <c r="U5" s="53">
+        <v>45645</v>
+      </c>
       <c r="V5" s="11"/>
       <c r="W5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="12"/>
@@ -3338,10 +3350,12 @@
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="37"/>
-      <c r="U6" s="10"/>
+      <c r="U6" s="53">
+        <v>45645</v>
+      </c>
       <c r="V6" s="11"/>
       <c r="W6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="12"/>
@@ -3379,10 +3393,12 @@
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="37"/>
-      <c r="U7" s="10"/>
+      <c r="U7" s="53">
+        <v>45645</v>
+      </c>
       <c r="V7" s="11"/>
       <c r="W7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="12"/>
@@ -3424,9 +3440,13 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="37"/>
-      <c r="U8" s="10"/>
+      <c r="U8" s="53">
+        <v>45645</v>
+      </c>
       <c r="V8" s="11"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="13"/>
@@ -3469,7 +3489,9 @@
       <c r="T9" s="38"/>
       <c r="U9" s="10"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="10"/>
+      <c r="W9" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="13"/>
@@ -3827,7 +3849,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -3866,7 +3888,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
@@ -3905,7 +3927,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -5250,9 +5272,13 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="38"/>
-      <c r="U54" s="10"/>
+      <c r="U54" s="53">
+        <v>45645</v>
+      </c>
       <c r="V54" s="11"/>
-      <c r="W54" s="10"/>
+      <c r="W54" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="13"/>
@@ -5763,9 +5789,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024956E4-D691-4A8C-8C2F-0D22D8371878}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -5951,23 +5977,28 @@
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A67" s="58">
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A68" s="58">
         <v>2</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B68" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="58"/>
-      <c r="B68" s="67"/>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
@@ -5975,23 +6006,23 @@
       <c r="G68" s="67"/>
       <c r="H68" s="67"/>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A101" s="58">
+    <row r="69" spans="1:8">
+      <c r="A69" s="58"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A102" s="58">
         <v>3</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B102" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="58"/>
-      <c r="B102" s="67"/>
       <c r="C102" s="67"/>
       <c r="D102" s="67"/>
       <c r="E102" s="67"/>
@@ -5999,23 +6030,23 @@
       <c r="G102" s="67"/>
       <c r="H102" s="67"/>
     </row>
-    <row r="135" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A135" s="68">
+    <row r="103" spans="1:8">
+      <c r="A103" s="58"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+    </row>
+    <row r="136" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A136" s="68">
         <v>4</v>
       </c>
-      <c r="B135" s="69" t="s">
+      <c r="B136" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="69"/>
-      <c r="H135" s="69"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="68"/>
-      <c r="B136" s="69"/>
       <c r="C136" s="69"/>
       <c r="D136" s="69"/>
       <c r="E136" s="69"/>
@@ -6023,31 +6054,42 @@
       <c r="G136" s="69"/>
       <c r="H136" s="69"/>
     </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="2" t="s">
+    <row r="137" spans="1:8">
+      <c r="A137" s="68"/>
+      <c r="B137" s="69"/>
+      <c r="C137" s="69"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="69"/>
+      <c r="G137" s="69"/>
+      <c r="H137" s="69"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B169" s="67" t="s">
+      <c r="B170" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C169" s="67"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="67"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="67"/>
-      <c r="H169" s="67"/>
-      <c r="I169" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:H136"/>
-    <mergeCell ref="B169:I169"/>
+  <mergeCells count="10">
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:H137"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B35:I35"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B67:H68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:H102"/>
+    <mergeCell ref="B68:H69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:H103"/>
     <mergeCell ref="B1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -6058,25 +6100,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB3B31B-D136-480B-9E11-47F041026224}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="11"/>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="58">
+        <v>5</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="58"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6112,25 +6171,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79987484-1B1B-4C30-8211-7B0D94F4A831}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="7">
-        <v>16</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/結合テスト仕様書/結合テスト仕様書.xlsx
+++ b/結合テスト仕様書/結合テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D0387-C21B-4CA8-A028-78680FEA86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040732CC-B88F-4735-8009-12E73B98529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テスト仕様書" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>結合テスト項目</t>
     <rPh sb="0" eb="2">
@@ -762,50 +762,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に「b」と入力する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面を表示して、ユーザIDの入力欄に「admin」、パスワード入力欄に「pass」と入力する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインに成功してメニュー画面に遷移すること</t>
     <rPh sb="5" eb="7">
       <t>セイコウ</t>
@@ -1094,50 +1050,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面を表示して、ユーザIDの入力欄に「admin」、パスワード入力欄に「a」と入力する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に「pass」と入力する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク登録画面で、タスク名「タスク１」・カテゴリ分類「新商品A：開発プロジェクト」・期限「2025/1/1」・担当者「admin」・ステータス情報「未着手」・メモ「タスク１メモテスト」と入力して登録ボタンを押下する</t>
     <rPh sb="3" eb="7">
       <t>トウロクガメン</t>
@@ -1685,6 +1597,119 @@
   </si>
   <si>
     <t>ログインに成功してメニュー画面に遷移すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示して、ユーザIDの入力欄に「admin」、パスワード入力欄に「pass」と入力し、ログインボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示して、ユーザIDの入力欄に「admin」、パスワード入力欄に「a」と入力し、ログインボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に「pass」と入力し、ログインボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示して、ユーザIDの入力欄に「a」、パスワード入力欄に「b」と入力し、ログインボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面を表示して、ユーザIDの入力欄に「admin」、パスワード入力欄に「pass」と入力し、ログインボタンを押下する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2655,6 +2680,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FE580-4784-54BB-282D-625D35F8D522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="3581400"/>
+          <a:ext cx="733425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B142AA6C-34F7-4FED-AFA9-6EB198B6A74E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="19564350"/>
+          <a:ext cx="733425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B51B41-6DF2-4614-9278-3C9974392F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="27660600"/>
+          <a:ext cx="733425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535482F1-2EB3-44E0-BCAE-9DFB6EA5E33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="35794950"/>
+          <a:ext cx="733425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2845,6 +3134,72 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E4BAB8-5344-4847-B18E-8DD56A1C951F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="4800600"/>
+          <a:ext cx="904875" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3182,7 +3537,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>7</v>
@@ -3190,7 +3545,7 @@
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
       <c r="E3" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>8</v>
@@ -3242,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -3251,7 +3606,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="37"/>
       <c r="M4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -3289,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -3298,7 +3653,7 @@
       <c r="K5" s="36"/>
       <c r="L5" s="37"/>
       <c r="M5" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
@@ -3332,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -3341,7 +3696,7 @@
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -3375,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -3384,7 +3739,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="37"/>
       <c r="M7" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="36"/>
@@ -3445,7 +3800,7 @@
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="12"/>
@@ -3506,11 +3861,11 @@
       <c r="B10" s="42"/>
       <c r="C10" s="63"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="7">
+      <c r="E10" s="39">
         <v>7</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -3545,9 +3900,7 @@
       <c r="B11" s="42"/>
       <c r="C11" s="63"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
+      <c r="E11" s="41"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -3580,11 +3933,11 @@
       <c r="B12" s="42"/>
       <c r="C12" s="63"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="7">
-        <v>9</v>
+      <c r="E12" s="39">
+        <v>8</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -3619,9 +3972,7 @@
       <c r="B13" s="42"/>
       <c r="C13" s="63"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
+      <c r="E13" s="41"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -3654,11 +4005,11 @@
       <c r="B14" s="42"/>
       <c r="C14" s="63"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="7">
-        <v>11</v>
+      <c r="E14" s="39">
+        <v>9</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -3693,9 +4044,7 @@
       <c r="B15" s="42"/>
       <c r="C15" s="63"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="7">
-        <v>12</v>
-      </c>
+      <c r="E15" s="41"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -3728,11 +4077,11 @@
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="7">
-        <v>13</v>
+      <c r="E16" s="39">
+        <v>10</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -3767,9 +4116,7 @@
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="7">
-        <v>14</v>
-      </c>
+      <c r="E17" s="41"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -3807,10 +4154,10 @@
       <c r="C18" s="31"/>
       <c r="D18" s="28"/>
       <c r="E18" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3846,10 +4193,10 @@
       <c r="C19" s="63"/>
       <c r="D19" s="44"/>
       <c r="E19" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -3885,10 +4232,10 @@
       <c r="C20" s="63"/>
       <c r="D20" s="44"/>
       <c r="E20" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
@@ -3924,10 +4271,10 @@
       <c r="C21" s="63"/>
       <c r="D21" s="44"/>
       <c r="E21" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -3963,10 +4310,10 @@
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
       <c r="E22" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
@@ -4002,10 +4349,10 @@
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
       <c r="E23" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
@@ -4041,10 +4388,10 @@
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
       <c r="E24" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
@@ -4080,10 +4427,10 @@
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
       <c r="E25" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
@@ -4119,10 +4466,10 @@
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
       <c r="E26" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
@@ -4158,10 +4505,10 @@
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
       <c r="E27" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
@@ -4197,10 +4544,10 @@
       <c r="C28" s="33"/>
       <c r="D28" s="30"/>
       <c r="E28" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
@@ -4240,7 +4587,7 @@
       <c r="C29" s="45"/>
       <c r="D29" s="11"/>
       <c r="E29" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>27</v>
@@ -4283,10 +4630,10 @@
       <c r="C30" s="45"/>
       <c r="D30" s="11"/>
       <c r="E30" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -4326,7 +4673,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="28"/>
       <c r="E31" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>30</v>
@@ -4364,11 +4711,11 @@
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="7">
-        <v>29</v>
+      <c r="E32" s="39">
+        <v>25</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -4403,9 +4750,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="33"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="7">
-        <v>30</v>
-      </c>
+      <c r="E33" s="41"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -4443,7 +4788,7 @@
       <c r="C34" s="31"/>
       <c r="D34" s="28"/>
       <c r="E34" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>30</v>
@@ -4482,10 +4827,10 @@
       <c r="C35" s="63"/>
       <c r="D35" s="44"/>
       <c r="E35" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
@@ -4521,10 +4866,10 @@
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
       <c r="E36" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
@@ -4560,10 +4905,10 @@
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
       <c r="E37" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
@@ -4599,10 +4944,10 @@
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
       <c r="E38" s="7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
@@ -4638,10 +4983,10 @@
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
       <c r="E39" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
@@ -4677,10 +5022,10 @@
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
       <c r="E40" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
@@ -4716,10 +5061,10 @@
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
@@ -4755,10 +5100,10 @@
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
       <c r="E42" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
@@ -4794,7 +5139,7 @@
       <c r="C43" s="33"/>
       <c r="D43" s="30"/>
       <c r="E43" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>59</v>
@@ -4837,10 +5182,10 @@
       <c r="C44" s="31"/>
       <c r="D44" s="28"/>
       <c r="E44" s="7">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
@@ -4876,7 +5221,7 @@
       <c r="C45" s="33"/>
       <c r="D45" s="30"/>
       <c r="E45" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>33</v>
@@ -4919,7 +5264,7 @@
       <c r="C46" s="45"/>
       <c r="D46" s="11"/>
       <c r="E46" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>32</v>
@@ -4962,10 +5307,10 @@
       <c r="C47" s="45"/>
       <c r="D47" s="11"/>
       <c r="E47" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
@@ -5000,15 +5345,15 @@
         <v>13</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="28"/>
       <c r="E48" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
@@ -5017,7 +5362,7 @@
       <c r="K48" s="36"/>
       <c r="L48" s="37"/>
       <c r="M48" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -5044,10 +5389,10 @@
       <c r="C49" s="33"/>
       <c r="D49" s="30"/>
       <c r="E49" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
@@ -5056,7 +5401,7 @@
       <c r="K49" s="36"/>
       <c r="L49" s="37"/>
       <c r="M49" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -5087,7 +5432,7 @@
       <c r="C50" s="31"/>
       <c r="D50" s="28"/>
       <c r="E50" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F50" s="35" t="s">
         <v>49</v>
@@ -5126,10 +5471,10 @@
       <c r="C51" s="33"/>
       <c r="D51" s="30"/>
       <c r="E51" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
@@ -5138,7 +5483,7 @@
       <c r="K51" s="36"/>
       <c r="L51" s="37"/>
       <c r="M51" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -5169,10 +5514,10 @@
       <c r="C52" s="31"/>
       <c r="D52" s="28"/>
       <c r="E52" s="7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -5208,7 +5553,7 @@
       <c r="C53" s="33"/>
       <c r="D53" s="30"/>
       <c r="E53" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>52</v>
@@ -5251,7 +5596,7 @@
       <c r="C54" s="45"/>
       <c r="D54" s="11"/>
       <c r="E54" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>55</v>
@@ -5277,7 +5622,7 @@
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
@@ -5479,12 +5824,17 @@
     <filterColumn colId="28" showButton="0"/>
     <filterColumn colId="29" showButton="0"/>
   </autoFilter>
-  <mergeCells count="301">
+  <mergeCells count="306">
     <mergeCell ref="F19:L19"/>
     <mergeCell ref="M19:T19"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="W19:X19"/>
     <mergeCell ref="Y19:AE19"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="U37:V37"/>
     <mergeCell ref="W37:X37"/>
     <mergeCell ref="Y37:AE37"/>
@@ -5802,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
@@ -5982,7 +6332,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
@@ -5997,7 +6347,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
@@ -6021,7 +6371,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="67" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C102" s="67"/>
       <c r="D102" s="67"/>
@@ -6045,7 +6395,7 @@
         <v>4</v>
       </c>
       <c r="B136" s="69" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C136" s="69"/>
       <c r="D136" s="69"/>
@@ -6069,7 +6419,7 @@
         <v>9</v>
       </c>
       <c r="B170" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C170" s="67"/>
       <c r="D170" s="67"/>
@@ -6179,7 +6529,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>55</v>
